--- a/PCA compounds DHS comparison.xlsx
+++ b/PCA compounds DHS comparison.xlsx
@@ -1,21 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="1780" windowWidth="25600" windowHeight="14980"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PC1" sheetId="1" r:id="rId1"/>
-    <sheet name="PC2" sheetId="2" r:id="rId2"/>
+    <sheet name="PC1" r:id="rId3" sheetId="1"/>
+    <sheet name="PC2" r:id="rId4" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -217,10 +210,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -232,7 +226,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -250,347 +244,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,18 +278,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="C2">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D2">
-        <v>9.8600000000000005E-6</v>
+      <c r="B2" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.86E-6</v>
       </c>
       <c r="E2" t="e">
         <v>#N/A</v>
@@ -636,17 +301,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>-0.91700000000000004</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>-0.917</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.84</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2.13E-4</v>
       </c>
       <c r="E3" t="e">
@@ -659,18 +324,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="C4">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="D4">
-        <v>1.0200000000000001E-5</v>
+      <c r="B4" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.02E-5</v>
       </c>
       <c r="E4" t="e">
         <v>#N/A</v>
@@ -682,17 +347,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="C5">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.817</v>
+      </c>
+      <c r="D5" t="n">
         <v>3.57E-4</v>
       </c>
       <c r="E5" t="e">
@@ -705,64 +370,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="C6">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.34E-4</v>
       </c>
       <c r="E6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.3</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="C7">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="D7">
-        <v>2.4399999999999999E-4</v>
-      </c>
-      <c r="E7">
+      <c r="B7" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.44E-4</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.51</v>
       </c>
-      <c r="F7">
-        <v>4.9000000000000004</v>
+      <c r="F7" t="n">
+        <v>4.9</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="D8">
-        <v>4.7800000000000002E-4</v>
+      <c r="B8" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.78E-4</v>
       </c>
       <c r="E8" t="e">
         <v>#N/A</v>
@@ -774,18 +439,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="C9">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="D9">
-        <v>3.0899999999999998E-4</v>
+      <c r="B9" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.09E-4</v>
       </c>
       <c r="E9" t="e">
         <v>#N/A</v>
@@ -797,18 +462,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>0.9</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.81</v>
       </c>
-      <c r="D10">
-        <v>4.0900000000000002E-4</v>
+      <c r="D10" t="n">
+        <v>4.09E-4</v>
       </c>
       <c r="E10" t="e">
         <v>#N/A</v>
@@ -820,64 +485,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.86</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>1.34E-4</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>1.66</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="C12">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="D12">
-        <v>9.5200000000000003E-6</v>
-      </c>
-      <c r="E12">
+      <c r="B12" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.52E-6</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.52</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>0.8</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C13">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="D13">
-        <v>7.1299999999999998E-5</v>
+      <c r="B13" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.13E-5</v>
       </c>
       <c r="E13" t="e">
         <v>#N/A</v>
@@ -889,41 +554,41 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>0.97</v>
       </c>
-      <c r="C14">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="D14">
-        <v>9.5200000000000003E-6</v>
-      </c>
-      <c r="E14">
+      <c r="C14" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.52E-6</v>
+      </c>
+      <c r="E14" t="n">
         <v>1.64</v>
       </c>
-      <c r="F14">
-        <v>1</v>
+      <c r="F14" t="n">
+        <v>1.0</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>-0.91400000000000003</v>
-      </c>
-      <c r="C15">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="D15">
-        <v>2.3900000000000001E-4</v>
+      <c r="B15" t="n">
+        <v>-0.914</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.39E-4</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
@@ -935,18 +600,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="C16">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="D16">
-        <v>2.5199999999999999E-5</v>
+      <c r="B16" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.52E-5</v>
       </c>
       <c r="E16" t="e">
         <v>#N/A</v>
@@ -958,18 +623,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C17">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="D17">
-        <v>7.1299999999999998E-5</v>
+      <c r="B17" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.13E-5</v>
       </c>
       <c r="E17" t="e">
         <v>#N/A</v>
@@ -981,40 +646,40 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>-0.92100000000000004</v>
-      </c>
-      <c r="C18">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="D18">
+      <c r="B18" t="n">
+        <v>-0.921</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="D18" t="n">
         <v>1.75E-4</v>
       </c>
-      <c r="E18">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="E18" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="C19">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D19">
+      <c r="B19" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="D19" t="n">
         <v>1.35E-4</v>
       </c>
       <c r="E19" t="e">
@@ -1027,18 +692,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="C20">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="D20">
-        <v>1.0200000000000001E-5</v>
+      <c r="B20" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.02E-5</v>
       </c>
       <c r="E20" t="e">
         <v>#N/A</v>
@@ -1050,18 +715,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>0.94</v>
       </c>
-      <c r="C21">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="D21">
-        <v>7.3100000000000001E-5</v>
+      <c r="C21" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.31E-5</v>
       </c>
       <c r="E21" t="e">
         <v>#N/A</v>
@@ -1073,17 +738,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="C22">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="D22">
+      <c r="B22" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="D22" t="n">
         <v>1.75E-4</v>
       </c>
       <c r="E22" t="e">
@@ -1096,64 +761,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="C23">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="D23">
-        <v>3.9800000000000002E-4</v>
-      </c>
-      <c r="E23">
+      <c r="B23" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.98E-4</v>
+      </c>
+      <c r="E23" t="n">
         <v>7.13</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>0.2</v>
       </c>
       <c r="G23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C24">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="D24">
-        <v>9.5200000000000003E-6</v>
-      </c>
-      <c r="E24">
+      <c r="B24" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.52E-6</v>
+      </c>
+      <c r="E24" t="n">
         <v>5.13</v>
       </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="F24" t="n">
+        <v>0.0</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.82</v>
       </c>
-      <c r="D25">
-        <v>3.4200000000000002E-4</v>
+      <c r="D25" t="n">
+        <v>3.42E-4</v>
       </c>
       <c r="E25" t="e">
         <v>#N/A</v>
@@ -1165,17 +830,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="C26">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="D26">
+      <c r="B26" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="D26" t="n">
         <v>1.22E-4</v>
       </c>
       <c r="E26" t="e">
@@ -1188,18 +853,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="C27">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="D27">
-        <v>3.4600000000000001E-4</v>
+      <c r="B27" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.46E-4</v>
       </c>
       <c r="E27" t="e">
         <v>#N/A</v>
@@ -1211,87 +876,87 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C28">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="D28">
-        <v>9.5200000000000003E-6</v>
-      </c>
-      <c r="E28">
+      <c r="B28" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.52E-6</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.73</v>
       </c>
-      <c r="F28">
-        <v>2.2000000000000002</v>
+      <c r="F28" t="n">
+        <v>2.2</v>
       </c>
       <c r="G28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>0.92</v>
       </c>
-      <c r="C29">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="D29">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="E29">
+      <c r="C29" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.77E-4</v>
+      </c>
+      <c r="E29" t="n">
         <v>1.19</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>0.6</v>
       </c>
       <c r="G29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C30">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="D30">
-        <v>9.5200000000000003E-6</v>
-      </c>
-      <c r="E30">
+      <c r="B30" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.52E-6</v>
+      </c>
+      <c r="E30" t="n">
         <v>11.91</v>
       </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="F30" t="n">
+        <v>0.0</v>
       </c>
       <c r="G30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="C31">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D31">
-        <v>9.8600000000000005E-6</v>
+      <c r="B31" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.86E-6</v>
       </c>
       <c r="E31" t="e">
         <v>#N/A</v>
@@ -1303,17 +968,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="C32">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="D32">
+      <c r="B32" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="D32" t="n">
         <v>1.34E-4</v>
       </c>
       <c r="E32" t="e">
@@ -1326,155 +991,155 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="C33">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="D33">
+      <c r="B33" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="D33" t="n">
         <v>1.34E-4</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>2.19</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>0.1</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C34">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="D34">
-        <v>7.1299999999999998E-5</v>
-      </c>
-      <c r="E34">
+      <c r="B34" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7.13E-5</v>
+      </c>
+      <c r="E34" t="n">
         <v>7.25</v>
       </c>
-      <c r="F34">
-        <v>0</v>
+      <c r="F34" t="n">
+        <v>0.0</v>
       </c>
       <c r="G34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="C35">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D35">
-        <v>3.8500000000000001E-5</v>
-      </c>
-      <c r="E35">
+      <c r="B35" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.85E-5</v>
+      </c>
+      <c r="E35" t="n">
         <v>1.97</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>10.9</v>
       </c>
       <c r="G35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="C36">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="D36">
+      <c r="B36" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="D36" t="n">
         <v>1.34E-4</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>1.84</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>0.2</v>
       </c>
       <c r="G36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="C37">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="D37">
-        <v>1.0900000000000001E-5</v>
-      </c>
-      <c r="E37">
+      <c r="B37" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.09E-5</v>
+      </c>
+      <c r="E37" t="n">
         <v>5.82</v>
       </c>
-      <c r="F37">
-        <v>0</v>
+      <c r="F37" t="n">
+        <v>0.0</v>
       </c>
       <c r="G37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="C38">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="D38">
-        <v>1.2300000000000001E-5</v>
+      <c r="B38" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.23E-5</v>
       </c>
       <c r="E38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>0.3</v>
       </c>
       <c r="G38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="C39">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="D39">
+      <c r="B39" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="D39" t="n">
         <v>1.56E-4</v>
       </c>
       <c r="E39" t="e">
@@ -1487,41 +1152,41 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>0.98</v>
       </c>
-      <c r="C40">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="D40">
-        <v>6.0700000000000003E-6</v>
-      </c>
-      <c r="E40">
+      <c r="C40" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.07E-6</v>
+      </c>
+      <c r="E40" t="n">
         <v>3.53</v>
       </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="F40" t="n">
+        <v>0.0</v>
       </c>
       <c r="G40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>0.95</v>
       </c>
-      <c r="C41">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="D41">
-        <v>3.8500000000000001E-5</v>
+      <c r="C41" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.85E-5</v>
       </c>
       <c r="E41" t="e">
         <v>#N/A</v>
@@ -1533,87 +1198,87 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="C42">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="D42">
-        <v>1.0200000000000001E-5</v>
-      </c>
-      <c r="E42">
+      <c r="B42" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.02E-5</v>
+      </c>
+      <c r="E42" t="n">
         <v>8.73</v>
       </c>
-      <c r="F42">
-        <v>0</v>
+      <c r="F42" t="n">
+        <v>0.0</v>
       </c>
       <c r="G42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="C43">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="D43">
-        <v>6.0700000000000003E-6</v>
-      </c>
-      <c r="E43">
+      <c r="B43" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.07E-6</v>
+      </c>
+      <c r="E43" t="n">
         <v>1.41</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>2.8</v>
       </c>
       <c r="G43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C44">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="D44">
-        <v>9.5200000000000003E-6</v>
-      </c>
-      <c r="E44">
+      <c r="B44" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.52E-6</v>
+      </c>
+      <c r="E44" t="n">
         <v>1.48</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>0.6</v>
       </c>
       <c r="G44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="C45">
+      <c r="B45" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.878</v>
       </c>
-      <c r="D45">
-        <v>8.3700000000000002E-5</v>
+      <c r="D45" t="n">
+        <v>8.37E-5</v>
       </c>
       <c r="E45" t="e">
         <v>#N/A</v>
@@ -1625,41 +1290,41 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C46">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="D46">
-        <v>2.2800000000000001E-4</v>
-      </c>
-      <c r="E46">
+      <c r="B46" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.28E-4</v>
+      </c>
+      <c r="E46" t="n">
         <v>5.77</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" t="n">
+        <v>0.0</v>
       </c>
       <c r="G46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="C47">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="D47">
-        <v>3.9800000000000002E-4</v>
+      <c r="B47" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.98E-4</v>
       </c>
       <c r="E47" t="e">
         <v>#N/A</v>
@@ -1671,17 +1336,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="C48">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="D48">
+      <c r="B48" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="D48" t="n">
         <v>1.35E-4</v>
       </c>
       <c r="E48" t="e">
@@ -1694,18 +1359,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49">
-        <v>-0.93899999999999995</v>
-      </c>
-      <c r="C49">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="D49">
-        <v>7.3899999999999994E-5</v>
+      <c r="B49" t="n">
+        <v>-0.939</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.39E-5</v>
       </c>
       <c r="E49" t="e">
         <v>#N/A</v>
@@ -1718,24 +1383,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1758,41 +1418,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>-0.95</v>
       </c>
-      <c r="C2">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D2">
-        <v>5.4600000000000004E-4</v>
-      </c>
-      <c r="E2">
+      <c r="C2" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.46E-4</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.03</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.2</v>
       </c>
       <c r="G2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3">
-        <v>-0.91100000000000003</v>
-      </c>
-      <c r="C3">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="D3">
-        <v>2.81E-3</v>
+      <c r="B3" t="n">
+        <v>-0.911</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00281</v>
       </c>
       <c r="E3" t="e">
         <v>#N/A</v>
@@ -1804,18 +1464,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>-0.91</v>
       </c>
-      <c r="C4">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="D4">
-        <v>2.81E-3</v>
+      <c r="C4" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00281</v>
       </c>
       <c r="E4" t="e">
         <v>#N/A</v>
@@ -1827,18 +1487,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5">
-        <v>-0.94399999999999995</v>
-      </c>
-      <c r="C5">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="D5">
-        <v>5.4600000000000004E-4</v>
+      <c r="B5" t="n">
+        <v>-0.944</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.46E-4</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
@@ -1850,18 +1510,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6">
-        <v>-0.89900000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="D6">
-        <v>4.0499999999999998E-3</v>
+      <c r="B6" t="n">
+        <v>-0.899</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.808</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00405</v>
       </c>
       <c r="E6" t="e">
         <v>#N/A</v>
@@ -1874,11 +1534,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>